--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2123.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2123.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.380053842541011</v>
+        <v>0.8617137670516968</v>
       </c>
       <c r="B1">
-        <v>1.761079458513132</v>
+        <v>3.110463857650757</v>
       </c>
       <c r="C1">
-        <v>1.254345327344484</v>
+        <v>3.006486177444458</v>
       </c>
       <c r="D1">
-        <v>1.140388085647999</v>
+        <v>1.707107663154602</v>
       </c>
       <c r="E1">
-        <v>1.165191128878527</v>
+        <v>1.311923027038574</v>
       </c>
     </row>
   </sheetData>
